--- a/src/template/template.xlsx
+++ b/src/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ran/Documents/LTGPython/LTGC-BoosterConso/src/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B95398D-E37C-4149-AA68-61595A567FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B8B07E-E391-044E-9767-C57237A38045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="24500" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>Scenario</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -352,49 +358,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AN2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:AN2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="By filling out this form, I agree to participate in the booster vaccination program sponsored by LT Group, Inc., its subsidiaries and affiliates" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Consent for Personal Data Collection" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="What is the name of your employer?" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Employee Number" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Last Name" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="First Name" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Middle Name" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Suffix" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Birthdate" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Where did you get your initial doses of COVID-19 vaccines?" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Do you have prior registration with eZConsult via LTGC?" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Enter your eZConsult Patient ID number." dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Select the vaccine brand." dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Date of first dose" dataDxfId="21"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Batch No. / Lot No. of first dose" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Place of vaccination of first dose" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Date of second dose" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Batch No. / Lot No. of second dose" dataDxfId="17"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Place of vaccination of second dose" dataDxfId="16"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Select your appropriate Priority Group" dataDxfId="15"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Are you a member of an indigenous group?" dataDxfId="14"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Are you a PWD (Person with Disability)?" dataDxfId="13"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Occupation" dataDxfId="12"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Mobile Number" dataDxfId="11"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Email Address" dataDxfId="10"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Region" dataDxfId="9"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Province" dataDxfId="8"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="City" dataDxfId="7"/>
-    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0000-000096000000}" name="Barangay" dataDxfId="6"/>
-    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0000-000097000000}" name="Sex" dataDxfId="5"/>
-    <tableColumn id="152" xr3:uid="{00000000-0010-0000-0000-000098000000}" name="Allergy to vaccines or components of vaccines?" dataDxfId="4"/>
-    <tableColumn id="153" xr3:uid="{00000000-0010-0000-0000-000099000000}" name="With Comorbidity/ies?" dataDxfId="3"/>
-    <tableColumn id="154" xr3:uid="{00000000-0010-0000-0000-00009A000000}" name="Please specify comorbidity/ies" dataDxfId="2"/>
-    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0000-00009B000000}" name="Select preferred vaccination site for your booster shot." dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{1EEF7569-54CD-B94A-93EA-A1D58CC86899}" name="Company" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:AO2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="41">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="By filling out this form, I agree to participate in the booster vaccination program sponsored by LT Group, Inc., its subsidiaries and affiliates" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Consent for Personal Data Collection" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="What is the name of your employer?" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Employee Number" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Last Name" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="First Name" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Middle Name" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Suffix" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Birthdate" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Where did you get your initial doses of COVID-19 vaccines?" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Do you have prior registration with eZConsult via LTGC?" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Enter your eZConsult Patient ID number." dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Select the vaccine brand." dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Date of first dose" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Batch No. / Lot No. of first dose" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Place of vaccination of first dose" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Date of second dose" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Batch No. / Lot No. of second dose" dataDxfId="18"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Place of vaccination of second dose" dataDxfId="17"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Select your appropriate Priority Group" dataDxfId="16"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Are you a member of an indigenous group?" dataDxfId="15"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Are you a PWD (Person with Disability)?" dataDxfId="14"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Occupation" dataDxfId="13"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Mobile Number" dataDxfId="12"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Email Address" dataDxfId="11"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Region" dataDxfId="10"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Province" dataDxfId="9"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="City" dataDxfId="8"/>
+    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0000-000096000000}" name="Barangay" dataDxfId="7"/>
+    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0000-000097000000}" name="Sex" dataDxfId="6"/>
+    <tableColumn id="152" xr3:uid="{00000000-0010-0000-0000-000098000000}" name="Allergy to vaccines or components of vaccines?" dataDxfId="5"/>
+    <tableColumn id="153" xr3:uid="{00000000-0010-0000-0000-000099000000}" name="With Comorbidity/ies?" dataDxfId="4"/>
+    <tableColumn id="154" xr3:uid="{00000000-0010-0000-0000-00009A000000}" name="Please specify comorbidity/ies" dataDxfId="3"/>
+    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0000-00009B000000}" name="Select preferred vaccination site for your booster shot." dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{1EEF7569-54CD-B94A-93EA-A1D58CC86899}" name="Company" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{7A49B727-9CB2-7945-A70F-5D3629189DAE}" name="Scenario" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -697,19 +704,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="39" width="20" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="24.33203125" customWidth="1"/>
+    <col min="41" max="41" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,8 +838,11 @@
       <c r="AN1" t="s">
         <v>42</v>
       </c>
+      <c r="AO1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="I2" s="3"/>
@@ -840,6 +851,7 @@
       <c r="V2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
